--- a/calc_gcups.xlsx
+++ b/calc_gcups.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6980" yWindow="1580" windowWidth="34120" windowHeight="25020" tabRatio="500"/>
+    <workbookView xWindow="62240" yWindow="3780" windowWidth="34120" windowHeight="25020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="uniprot_sprot_samples" localSheetId="0">Sheet1!$A$2:$B$51</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -32,7 +32,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="uniprot_sprot_samples" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/npcarter/data/uniprot_sprot_samples.csv" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/npcarter/data/uniprot_sprot_samples.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
@@ -537,7 +537,7 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1382,6 +1382,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <f>AVERAGE(B2:B51)</f>
+        <v>329.82</v>
+      </c>
+    </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>53</v>
